--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -99,8 +99,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
@@ -377,8 +377,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="1" style="0" width="14"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
     <row r="2">
       <c r="A2" s="1" t="str">
         <v>Source Info</v>
@@ -398,7 +411,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>E</v>
+        <v>Excel</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -415,16 +428,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>W</v>
+        <v>Wanda</v>
       </c>
       <c r="B4" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <v>13</v>
@@ -454,27 +467,26 @@
         <v>Source Info</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8">
-        <v>756</v>
-      </c>
-      <c r="B8" t="str">
+    <row r="7">
+      <c r="A7" s="2" t="str">
         <v>TS2</v>
       </c>
-      <c r="C8">
-        <v>12</v>
-      </c>
-      <c r="D8">
+      <c r="B7" s="2" t="str">
+        <v>TS2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>14</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G7" s="2" t="str">
         <v>W</v>
       </c>
     </row>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -382,15 +382,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" t="str">
         <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -411,37 +405,27 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>Excel</v>
+        <v>Wanda</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>Wanda</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5"/>
     <row r="6">
@@ -469,22 +453,22 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>TS2</v>
+        <v>M9</v>
       </c>
       <c r="B7" s="2" t="str">
-        <v>TS2</v>
+        <v>MELLY ANASTASYA</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>545</v>
       </c>
       <c r="D7" s="2">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
       <c r="F7" s="2">
-        <v>14</v>
+        <v>585</v>
       </c>
       <c r="G7" s="2" t="str">
         <v>W</v>
@@ -504,7 +488,82 @@
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="2" style="0" width="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>Alasan</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Pikir-pikir / Ragu-ragu</v>
+      </c>
+      <c r="B3" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>Telepon tidak di angkat</v>
+      </c>
+      <c r="B4" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Telepon Kembali</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Telepon salah sambung</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="str">
+        <v>Telepon Bermasalah</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
 </worksheet>
 </file>
 
@@ -514,6 +573,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="2" style="0" width="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>Alasan</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
+        <v>Klaim Sulit</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="str">
+        <v>Mau Gratis / tidak ada uang</v>
+      </c>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
 </worksheet>
 </file>
--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -382,95 +382,106 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
-        <v>Source Info</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>Tidak Berminat</v>
-      </c>
-      <c r="D2" s="1" t="str">
-        <v>Berminat</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <v>Total</v>
-      </c>
-    </row>
+      <c r="A1" s="1" t="str">
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="str">
+        <v>Source Info</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <v>Tidak Berminat</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <v>Berminat</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
         <v>Wanda</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>550</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>39</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>590</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="A5" s="1"/>
+    </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>Id User</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B7" t="str">
         <v>Nama</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C7" t="str">
         <v>Pending</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D7" t="str">
         <v>Tidak Berminat</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E7" t="str">
         <v>Berminat</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F7" t="str">
         <v>Total</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G7" t="str">
         <v>Source Info</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
+    <row r="8">
+      <c r="A8" s="2" t="str">
         <v>M9</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B8" s="2" t="str">
         <v>MELLY ANASTASYA</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>545</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>39</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>585</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G8" s="2" t="str">
         <v>W</v>
       </c>
     </row>
@@ -495,7 +506,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -504,60 +515,114 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="str">
         <v>Alasan</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B3" s="1" t="str">
         <v>Total</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Pikir-pikir / Ragu-ragu</v>
-      </c>
-      <c r="B3" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>Telepon tidak di angkat</v>
+        <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>412</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>Telepon Kembali</v>
+        <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>Tidak Ada Alasan</v>
+        <v>Telepon Kembali</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>Telepon salah sambung</v>
+        <v>Tidak Ada Alasan</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
+        <v>Telepon salah sambung</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
         <v>Telepon Bermasalah</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Pikir-pikir / Ragu-ragu</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Telepon Kembali</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Telepon tidak di angkat</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Telepon Bermasalah</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Telepon salah sambung</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>M9</v>
+      </c>
+      <c r="B12" t="str">
+        <v>MELLY ANASTASYA</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>124</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>412</v>
+      </c>
+      <c r="G12">
         <v>2</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +645,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -589,36 +654,45 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="str">
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="str">
         <v>Alasan</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B3" s="1" t="str">
         <v>Total</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="str">
-        <v>Klaim Sulit</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="str">
-        <v>Tidak ada alasan</v>
+        <v>Klaim Sulit</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="B5" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="str">
         <v>Mau Gratis / tidak ada uang</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Sudah punya asuransi lain</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -397,16 +397,16 @@
       <c r="A3" s="1" t="str">
         <v>Source Info</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>Pending</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Tidak Berminat</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>Berminat</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>Total</v>
       </c>
     </row>
@@ -429,36 +429,32 @@
     </row>
     <row r="5">
       <c r="A5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6"/>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" s="1" t="str">
         <v>Id User</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <v>Nama</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <v>Pending</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <v>Tidak Berminat</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <v>Berminat</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="1" t="str">
         <v>Total</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" s="1" t="str">
         <v>Source Info</v>
       </c>
     </row>
@@ -502,11 +498,16 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="27"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -529,7 +530,7 @@
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +538,7 @@
         <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>473</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
         <v>Tidak Ada Alasan</v>
       </c>
       <c r="B7" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -569,35 +570,36 @@
         <v>Telepon Bermasalah</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10"/>
     <row r="11">
-      <c r="A11" t="str">
+      <c r="A11" s="1" t="str">
         <v>Id User</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <v>Nama</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <v>Tidak Ada Alasan</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="1" t="str">
         <v>Telepon Kembali</v>
       </c>
-      <c r="F11" t="str">
+      <c r="F11" s="1" t="str">
         <v>Telepon tidak di angkat</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" s="1" t="str">
         <v>Telepon Bermasalah</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H11" s="1" t="str">
         <v>Telepon salah sambung</v>
       </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -641,11 +643,15 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -668,7 +674,7 @@
         <v>Klaim Sulit</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +682,7 @@
         <v>Tidak ada alasan</v>
       </c>
       <c r="B5" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -687,11 +693,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>Mau Gratis / tidak ada uang</v>
+      </c>
+      <c r="E8" s="1" t="str">
         <v>Sudah punya asuransi lain</v>
       </c>
-      <c r="B7" s="2">
+      <c r="F8" s="1" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>Klaim Sulit</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>M9</v>
+      </c>
+      <c r="B9" t="str">
+        <v>MELLY ANASTASYA</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -599,16 +599,12 @@
       <c r="H11" s="1" t="str">
         <v>Telepon salah sambung</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>M9</v>
       </c>
-      <c r="B12" t="str">
-        <v>MELLY ANASTASYA</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
         <v>0</v>
       </c>
       <c r="D12">
@@ -643,10 +639,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="2" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -702,22 +698,18 @@
         <v>Nama</v>
       </c>
       <c r="C8" s="1" t="str">
-        <v>Tidak Ada Alasan</v>
+        <v>Mau Gratis / tidak ada uang</v>
       </c>
       <c r="D8" s="1" t="str">
-        <v>Mau Gratis / tidak ada uang</v>
+        <v>Sudah punya asuransi lain</v>
       </c>
       <c r="E8" s="1" t="str">
-        <v>Sudah punya asuransi lain</v>
+        <v>Tidak ada alasan</v>
       </c>
       <c r="F8" s="1" t="str">
-        <v>Tidak ada alasan</v>
-      </c>
-      <c r="G8" s="1" t="str">
         <v>Klaim Sulit</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -727,18 +719,15 @@
         <v>MELLY ANASTASYA</v>
       </c>
       <c r="C9">
+        <v>13</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
         <v>1</v>
       </c>
     </row>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -415,7 +415,7 @@
         <v>Wanda</v>
       </c>
       <c r="B4" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C4" s="2">
         <v>39</v>
@@ -424,7 +424,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5">
@@ -466,7 +466,7 @@
         <v>MELLY ANASTASYA</v>
       </c>
       <c r="C8" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D8" s="2">
         <v>39</v>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G8" s="2" t="str">
         <v>W</v>
@@ -507,7 +507,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -530,7 +530,7 @@
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
         <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>412</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6">
@@ -551,75 +551,67 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="str">
-        <v>Tidak Ada Alasan</v>
+        <v>Telepon salah sambung</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="str">
+        <v>Telepon Bermasalah</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9"/>
+    <row r="10">
+      <c r="A10" s="1" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <v>Pikir-pikir / Ragu-ragu</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <v>Telepon Kembali</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <v>Telepon tidak di angkat</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <v>Telepon Bermasalah</v>
+      </c>
+      <c r="H10" s="1" t="str">
         <v>Telepon salah sambung</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="str">
-        <v>Telepon Bermasalah</v>
-      </c>
-      <c r="B9" s="2">
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>M9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>413</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11" s="1" t="str">
-        <v>Id User</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="C11" s="1" t="str">
-        <v>Tidak Ada Alasan</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <v>Pikir-pikir / Ragu-ragu</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <v>Telepon Kembali</v>
-      </c>
-      <c r="F11" s="1" t="str">
-        <v>Telepon tidak di angkat</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>Telepon Bermasalah</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <v>Telepon salah sambung</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>M9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>124</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>412</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
+      <c r="H11">
         <v>1</v>
       </c>
     </row>
@@ -647,7 +639,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -678,7 +670,7 @@
         <v>Tidak ada alasan</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -689,45 +681,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" s="1" t="str">
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Sudah punya asuransi lain</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="1" t="str">
         <v>Id User</v>
       </c>
-      <c r="B8" s="1" t="str">
+      <c r="B9" s="1" t="str">
         <v>Nama</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C9" s="1" t="str">
         <v>Mau Gratis / tidak ada uang</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D9" s="1" t="str">
         <v>Sudah punya asuransi lain</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E9" s="1" t="str">
         <v>Tidak ada alasan</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F9" s="1" t="str">
         <v>Klaim Sulit</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
         <v>M9</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B10" t="str">
         <v>MELLY ANASTASYA</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>25</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>1</v>
       </c>
     </row>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -466,7 +466,7 @@
         <v>MELLY ANASTASYA</v>
       </c>
       <c r="C8" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D8" s="2">
         <v>39</v>
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G8" s="2" t="str">
         <v>W</v>
@@ -507,7 +507,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -530,7 +530,7 @@
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +538,7 @@
         <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>474</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>Telepon Bermasalah</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9"/>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>6</v>
@@ -639,7 +639,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -670,7 +670,7 @@
         <v>Tidak ada alasan</v>
       </c>
       <c r="B5" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -681,53 +681,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="str">
+    <row r="7"/>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>Mau Gratis / tidak ada uang</v>
+      </c>
+      <c r="D8" s="1" t="str">
         <v>Sudah punya asuransi lain</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8"/>
+      <c r="E8" s="1" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <v>Klaim Sulit</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>Id User</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>Mau Gratis / tidak ada uang</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <v>Sudah punya asuransi lain</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <v>Tidak ada alasan</v>
-      </c>
-      <c r="F9" s="1" t="str">
-        <v>Klaim Sulit</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="A9" t="str">
         <v>M9</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B9" t="str">
         <v>MELLY ANASTASYA</v>
       </c>
-      <c r="C10">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="F9">
         <v>1</v>
       </c>
     </row>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -415,16 +415,16 @@
         <v>Wanda</v>
       </c>
       <c r="B4" s="2">
-        <v>551</v>
+        <v>707</v>
       </c>
       <c r="C4" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>591</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5">
@@ -466,18 +466,41 @@
         <v>MELLY ANASTASYA</v>
       </c>
       <c r="C8" s="2">
-        <v>551</v>
+        <v>705</v>
       </c>
       <c r="D8" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>591</v>
+        <v>753</v>
       </c>
       <c r="G8" s="2" t="str">
+        <v>W</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>JT1</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>Jati</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="str">
         <v>W</v>
       </c>
     </row>
@@ -507,7 +530,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -530,7 +553,7 @@
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -538,7 +561,7 @@
         <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>413</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6">
@@ -546,7 +569,7 @@
         <v>Telepon Kembali</v>
       </c>
       <c r="B6" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -562,57 +585,94 @@
         <v>Telepon Bermasalah</v>
       </c>
       <c r="B8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10"/>
+    <row r="11">
+      <c r="A11" s="1" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <v>Tidak Ada Alasan</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <v>Pikir-pikir / Ragu-ragu</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <v>Telepon Kembali</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <v>Telepon tidak di angkat</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <v>Telepon Bermasalah</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <v>Telepon salah sambung</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>M9</v>
+      </c>
+      <c r="B12" t="str">
+        <v>MELLY ANASTASYA</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>160</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>531</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>JT1</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Jati</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="str">
-        <v>Id User</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>Tidak Ada Alasan</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <v>Pikir-pikir / Ragu-ragu</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <v>Telepon Kembali</v>
-      </c>
-      <c r="F10" s="1" t="str">
-        <v>Telepon tidak di angkat</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>Telepon Bermasalah</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <v>Telepon salah sambung</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>M9</v>
-      </c>
-      <c r="B11">
+      <c r="E13">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>129</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>413</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +699,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-05-30</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -667,60 +727,87 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>Tidak ada alasan</v>
+        <v>Mau Gratis / tidak ada uang</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="str">
+        <v>Sudah punya asuransi lain</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8"/>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>Id User</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <v>Nama</v>
+      </c>
+      <c r="C9" s="1" t="str">
         <v>Mau Gratis / tidak ada uang</v>
       </c>
-      <c r="B6" s="2">
+      <c r="D9" s="1" t="str">
+        <v>Sudah punya asuransi lain</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <v>Tidak ada alasan</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <v>Klaim Sulit</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>M9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>MELLY ANASTASYA</v>
+      </c>
+      <c r="C10">
         <v>13</v>
       </c>
-    </row>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>Id User</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>Mau Gratis / tidak ada uang</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <v>Sudah punya asuransi lain</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <v>Tidak ada alasan</v>
-      </c>
-      <c r="F8" s="1" t="str">
-        <v>Klaim Sulit</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>M9</v>
-      </c>
-      <c r="B9" t="str">
-        <v>MELLY ANASTASYA</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>JT1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Jati</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -383,7 +383,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-08-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -415,16 +415,16 @@
         <v>Wanda</v>
       </c>
       <c r="B4" s="2">
-        <v>707</v>
+        <v>1414</v>
       </c>
       <c r="C4" s="2">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>756</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="5">
@@ -489,16 +489,16 @@
         <v>Jati</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>373</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>3</v>
+        <v>420</v>
       </c>
       <c r="G9" s="2" t="str">
         <v>W</v>
@@ -530,7 +530,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-08-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -553,7 +553,7 @@
         <v>Pikir-pikir / Ragu-ragu</v>
       </c>
       <c r="B4" s="2">
-        <v>162</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -561,7 +561,7 @@
         <v>Telepon tidak di angkat</v>
       </c>
       <c r="B5" s="2">
-        <v>531</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6">
@@ -569,7 +569,7 @@
         <v>Telepon Kembali</v>
       </c>
       <c r="B6" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -577,7 +577,7 @@
         <v>Telepon salah sambung</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -585,7 +585,7 @@
         <v>Telepon Bermasalah</v>
       </c>
       <c r="B8" s="2">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -699,7 +699,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>Report Asuransi Periode 2024-05-01 - 2024-07-31</v>
+        <v>Report Asuransi Periode 2024-05-01 - 2024-08-31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -727,18 +727,18 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="str">
-        <v>Mau Gratis / tidak ada uang</v>
+        <v>Tidak ada alasan</v>
       </c>
       <c r="B5" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="str">
-        <v>Tidak ada alasan</v>
+        <v>Mau Gratis / tidak ada uang</v>
       </c>
       <c r="B6" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -746,7 +746,7 @@
         <v>Sudah punya asuransi lain</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8"/>
@@ -798,13 +798,13 @@
         <v>Jati</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>0</v>

--- a/file-report-asuransi.xlsx
+++ b/file-report-asuransi.xlsx
@@ -1,23 +1,152 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB2D88-5CFE-4C67-BB19-109E3F043075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rekap" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tidak Berminat" sheetId="2" relationships:id="rId4"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pending" sheetId="3" relationships:id="rId5"/>
+    <sheet name="Rekap" sheetId="1" r:id="rId1"/>
+    <sheet name="Pending" sheetId="2" r:id="rId2"/>
+    <sheet name="Tidak Berminat" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
+  <si>
+    <t>Source Info</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Tidak Berminat</t>
+  </si>
+  <si>
+    <t>Berminat</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Excell</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Wanda</t>
+  </si>
+  <si>
+    <t>Juni</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Id User</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>AN1</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>JT1</t>
+  </si>
+  <si>
+    <t>Jati</t>
+  </si>
+  <si>
+    <t>LN1</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>MELLY ANASTASYA</t>
+  </si>
+  <si>
+    <t>SV1</t>
+  </si>
+  <si>
+    <t>Alasan</t>
+  </si>
+  <si>
+    <t>Januari</t>
+  </si>
+  <si>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Maret</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Agustus</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Oktober</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>Desember</t>
+  </si>
+  <si>
+    <t>Pikir-pikir / Ragu-ragu</t>
+  </si>
+  <si>
+    <t>Telepon tidak di angkat</t>
+  </si>
+  <si>
+    <t>Telepon Kembali</t>
+  </si>
+  <si>
+    <t>Telepon salah sambung</t>
+  </si>
+  <si>
+    <t>Telepon Bermasalah</t>
+  </si>
+  <si>
+    <t>Klaim Sulit</t>
+  </si>
+  <si>
+    <t>Tidak ada alasan</t>
+  </si>
+  <si>
+    <t>Mau Gratis / tidak ada uang</t>
+  </si>
+  <si>
+    <t>Sudah punya asuransi lain</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +157,10 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -50,16 +173,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -320,44 +452,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D078DBB7-1060-4875-9091-5ED439080510}">
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="1" style="0" width="14"/>
+    <col min="1" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Source Info</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Bulan</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Tidak Berminat</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Berminat</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Total</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Excell</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Mei</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -372,12 +502,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Wanda</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Mei</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>629</v>
@@ -392,12 +522,12 @@
         <v>674</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Wanda</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Juni</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6">
         <v>564</v>
@@ -412,9 +542,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>Juli</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7">
         <v>220</v>
@@ -429,42 +560,41 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8"/>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Id User</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Nama</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Bulan</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Tidak Berminat</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Berminat</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Total</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Source Info</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>AN1</v>
-      </c>
-      <c r="B10" t="str">
-        <v>AN1</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Juni</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
       <c r="D10">
         <v>18</v>
@@ -478,19 +608,19 @@
       <c r="G10">
         <v>18</v>
       </c>
-      <c r="H10" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>AN1</v>
-      </c>
-      <c r="B11" t="str">
-        <v>AN1</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Juli</v>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="D11">
         <v>21</v>
@@ -504,19 +634,19 @@
       <c r="G11">
         <v>22</v>
       </c>
-      <c r="H11" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>DN1</v>
-      </c>
-      <c r="B12" t="str">
-        <v>DN1</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Juni</v>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
       <c r="D12">
         <v>26</v>
@@ -530,19 +660,19 @@
       <c r="G12">
         <v>35</v>
       </c>
-      <c r="H12" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>DN1</v>
-      </c>
-      <c r="B13" t="str">
-        <v>DN1</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Juli</v>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
       </c>
       <c r="D13">
         <v>76</v>
@@ -556,19 +686,19 @@
       <c r="G13">
         <v>79</v>
       </c>
-      <c r="H13" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>JT1</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Jati</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Juni</v>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
       <c r="D14">
         <v>373</v>
@@ -582,19 +712,19 @@
       <c r="G14">
         <v>420</v>
       </c>
-      <c r="H14" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>LN1</v>
-      </c>
-      <c r="B15" t="str">
-        <v>LN1</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Juni</v>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
       </c>
       <c r="D15">
         <v>36</v>
@@ -608,19 +738,19 @@
       <c r="G15">
         <v>44</v>
       </c>
-      <c r="H15" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>LN1</v>
-      </c>
-      <c r="B16" t="str">
-        <v>LN1</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Juli</v>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
       </c>
       <c r="D16">
         <v>60</v>
@@ -634,19 +764,19 @@
       <c r="G16">
         <v>68</v>
       </c>
-      <c r="H16" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>M9</v>
-      </c>
-      <c r="B17" t="str">
-        <v>MELLY ANASTASYA</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Mei</v>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>630</v>
@@ -660,19 +790,19 @@
       <c r="G17">
         <v>675</v>
       </c>
-      <c r="H17" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>M9</v>
-      </c>
-      <c r="B18" t="str">
-        <v>MELLY ANASTASYA</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Juni</v>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
       </c>
       <c r="D18">
         <v>75</v>
@@ -686,19 +816,19 @@
       <c r="G18">
         <v>78</v>
       </c>
-      <c r="H18" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>SV1</v>
-      </c>
-      <c r="B19" t="str">
-        <v>SV1</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Juni</v>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
       </c>
       <c r="D19">
         <v>36</v>
@@ -712,13 +842,15 @@
       <c r="G19">
         <v>40</v>
       </c>
-      <c r="H19" t="str">
-        <v>W</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="str">
-        <v>Juli</v>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" t="s">
+        <v>10</v>
       </c>
       <c r="D20">
         <v>63</v>
@@ -732,91 +864,710 @@
       <c r="G20">
         <v>71</v>
       </c>
-      <c r="H20" t="str">
-        <v>W</v>
+      <c r="H20" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
+  <mergeCells count="11">
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5A2476-CB97-4E59-B540-9B213160F3BF}">
+  <dimension ref="A3:M22"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>146</v>
+      </c>
+      <c r="G4">
+        <v>90</v>
+      </c>
+      <c r="H4">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>474</v>
+      </c>
+      <c r="G5">
+        <v>454</v>
+      </c>
+      <c r="H5">
+        <v>132</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>765</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>765</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>762</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>762</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>761</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>333</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>763</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>763</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>756</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>474</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>756</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>57</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>764</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>764</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83E642F-E39E-49DB-A950-A9139AC4778D}">
+  <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Alasan</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Januari</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Februari</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Maret</v>
-      </c>
-      <c r="E3" t="str">
-        <v>April</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Mei</v>
-      </c>
-      <c r="G3" t="str">
-        <v>Juni</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Juli</v>
-      </c>
-      <c r="I3" t="str">
-        <v>Agustus</v>
-      </c>
-      <c r="J3" t="str">
-        <v>September</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Oktober</v>
-      </c>
-      <c r="L3" t="str">
-        <v>November</v>
-      </c>
-      <c r="M3" t="str">
-        <v>Desember</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Pikir-pikir / Ragu-ragu</v>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -831,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -855,9 +1606,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Telepon tidak di angkat</v>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -872,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>474</v>
+        <v>29</v>
       </c>
       <c r="G5">
-        <v>454</v>
+        <v>54</v>
       </c>
       <c r="H5">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -896,9 +1647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Telepon Kembali</v>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -913,151 +1664,335 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Telepon salah sambung</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Telepon Bermasalah</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>765</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>762</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>762</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>761</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>763</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>763</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>756</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str"/>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>756</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>764</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>764</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>